--- a/Inputs/Mineral_Intensity.xlsx
+++ b/Inputs/Mineral_Intensity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Pablo\Educacion\Aprendizaje Continuo\Codigos utiles\R\Proyectos R\USA-EV-Lithium-GHG\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Pablo\Educacion\Programming\R\R UC Davis\USA-EV-Lithium-GHG\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFDEBAB-BDE8-478A-AFAC-7B8958AA1845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C945D9-7E3A-4758-ACCF-33C4A99AEF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B472435-57B0-4E18-8E2C-2EA77018F632}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="70">
   <si>
     <t>LFP</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Copper</t>
+  </si>
+  <si>
+    <t>kWh</t>
   </si>
 </sst>
 </file>
@@ -622,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14971A9-44D0-4518-9090-F0BD7475C020}">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="D114" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,7 +2588,7 @@
         <v>0.55953866191362445</v>
       </c>
       <c r="F93">
-        <f t="shared" ref="F93:F105" si="2">+E93*1000</f>
+        <f t="shared" ref="F93:F124" si="2">+E93*1000</f>
         <v>559.53866191362442</v>
       </c>
     </row>
@@ -2857,6 +2860,10 @@
       <c r="E106">
         <v>0.56550121270075471</v>
       </c>
+      <c r="F106">
+        <f t="shared" si="2"/>
+        <v>565.50121270075476</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -2874,6 +2881,10 @@
       <c r="E107">
         <v>0.58825299476545445</v>
       </c>
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>588.25299476545445</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -2891,6 +2902,10 @@
       <c r="E108">
         <v>0.52465188306341326</v>
       </c>
+      <c r="F108">
+        <f t="shared" si="2"/>
+        <v>524.65188306341327</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -2908,6 +2923,10 @@
       <c r="E109">
         <v>0.54172262913477809</v>
       </c>
+      <c r="F109">
+        <f t="shared" si="2"/>
+        <v>541.72262913477812</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -2925,6 +2944,10 @@
       <c r="E110">
         <v>0.38075495497149553</v>
       </c>
+      <c r="F110">
+        <f t="shared" si="2"/>
+        <v>380.75495497149552</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -2942,6 +2965,10 @@
       <c r="E111">
         <v>0.39188326921614625</v>
       </c>
+      <c r="F111">
+        <f t="shared" si="2"/>
+        <v>391.88326921614623</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -2959,8 +2986,12 @@
       <c r="E112">
         <v>0.41719452082152503</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <f t="shared" si="2"/>
+        <v>417.19452082152503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>62</v>
       </c>
@@ -2976,8 +3007,12 @@
       <c r="E113">
         <v>0.43002511589582704</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <f t="shared" si="2"/>
+        <v>430.02511589582701</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>62</v>
       </c>
@@ -2993,8 +3028,12 @@
       <c r="E114">
         <v>0.39758399321660703</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <f t="shared" si="2"/>
+        <v>397.58399321660704</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>62</v>
       </c>
@@ -3010,8 +3049,12 @@
       <c r="E115">
         <v>0.40938876613391356</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <f t="shared" si="2"/>
+        <v>409.38876613391358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>62</v>
       </c>
@@ -3027,8 +3070,12 @@
       <c r="E116">
         <v>0.39400947631703143</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <f t="shared" si="2"/>
+        <v>394.00947631703144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>62</v>
       </c>
@@ -3044,8 +3091,12 @@
       <c r="E117">
         <v>0.40566199485413867</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <f t="shared" si="2"/>
+        <v>405.6619948541387</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -3061,8 +3112,12 @@
       <c r="E118">
         <v>0.37272846555500178</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <f t="shared" si="2"/>
+        <v>372.72846555500178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>62</v>
       </c>
@@ -3078,8 +3133,12 @@
       <c r="E119">
         <v>0.38587123311405447</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <f t="shared" si="2"/>
+        <v>385.87123311405446</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>62</v>
       </c>
@@ -3095,8 +3154,12 @@
       <c r="E120">
         <v>0.36442841755057798</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <f t="shared" si="2"/>
+        <v>364.42841755057799</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>62</v>
       </c>
@@ -3112,8 +3175,12 @@
       <c r="E121">
         <v>0.38587123311405447</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <f t="shared" si="2"/>
+        <v>385.87123311405446</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>62</v>
       </c>
@@ -3129,8 +3196,12 @@
       <c r="E122">
         <v>0.37272846555500178</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <f t="shared" si="2"/>
+        <v>372.72846555500178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>62</v>
       </c>
@@ -3145,6 +3216,556 @@
       </c>
       <c r="E123">
         <v>0.38587123311405447</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="2"/>
+        <v>385.87123311405446</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>62</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>69</v>
+      </c>
+      <c r="D124" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>62</v>
+      </c>
+      <c r="B125" t="s">
+        <v>61</v>
+      </c>
+      <c r="C125" t="s">
+        <v>69</v>
+      </c>
+      <c r="D125" t="s">
+        <v>52</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <f t="shared" ref="F125:F149" si="3">+E125*1000</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>62</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>69</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>62</v>
+      </c>
+      <c r="B127" t="s">
+        <v>61</v>
+      </c>
+      <c r="C127" t="s">
+        <v>69</v>
+      </c>
+      <c r="D127" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>62</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>69</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129" t="s">
+        <v>61</v>
+      </c>
+      <c r="C129" t="s">
+        <v>69</v>
+      </c>
+      <c r="D129" t="s">
+        <v>54</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>62</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>62</v>
+      </c>
+      <c r="B131" t="s">
+        <v>61</v>
+      </c>
+      <c r="C131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D131" t="s">
+        <v>55</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>62</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>69</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>62</v>
+      </c>
+      <c r="B133" t="s">
+        <v>61</v>
+      </c>
+      <c r="C133" t="s">
+        <v>69</v>
+      </c>
+      <c r="D133" t="s">
+        <v>56</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>62</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>69</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>62</v>
+      </c>
+      <c r="B135" t="s">
+        <v>61</v>
+      </c>
+      <c r="C135" t="s">
+        <v>69</v>
+      </c>
+      <c r="D135" t="s">
+        <v>57</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>62</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>69</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>62</v>
+      </c>
+      <c r="B137" t="s">
+        <v>61</v>
+      </c>
+      <c r="C137" t="s">
+        <v>69</v>
+      </c>
+      <c r="D137" t="s">
+        <v>58</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>62</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>69</v>
+      </c>
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" t="s">
+        <v>59</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>62</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>69</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>62</v>
+      </c>
+      <c r="B141" t="s">
+        <v>61</v>
+      </c>
+      <c r="C141" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" t="s">
+        <v>60</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>63</v>
+      </c>
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" t="s">
+        <v>69</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>64</v>
+      </c>
+      <c r="B143" t="s">
+        <v>42</v>
+      </c>
+      <c r="C143" t="s">
+        <v>69</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>64</v>
+      </c>
+      <c r="B144" t="s">
+        <v>42</v>
+      </c>
+      <c r="C144" t="s">
+        <v>69</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>64</v>
+      </c>
+      <c r="B145" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" t="s">
+        <v>42</v>
+      </c>
+      <c r="C146" t="s">
+        <v>69</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>64</v>
+      </c>
+      <c r="B147" t="s">
+        <v>42</v>
+      </c>
+      <c r="C147" t="s">
+        <v>69</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" t="s">
+        <v>42</v>
+      </c>
+      <c r="C148" t="s">
+        <v>69</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>64</v>
+      </c>
+      <c r="B149" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" t="s">
+        <v>69</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="3"/>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
